--- a/biology/Médecine/Auguste_Cuénod/Auguste_Cuénod.xlsx
+++ b/biology/Médecine/Auguste_Cuénod/Auguste_Cuénod.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Auguste_Cu%C3%A9nod</t>
+          <t>Auguste_Cuénod</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Auguste Cuénod, né le 15 juin 1868 à Saint-Légier-sur-Vevey[1] et mort le 8 février 1954 à Hammamet, est un ophtalmologiste suisse ayant fait sa carrière en Tunisie, où il s'est particulièrement illustré dans la lutte contre le trachome[2]. Il est également l'auteur du premier tome de la flore de Tunisie, en collaboration avec Germaine Pottier-Alapetite et Augustin Labbe.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Auguste Cuénod, né le 15 juin 1868 à Saint-Légier-sur-Vevey et mort le 8 février 1954 à Hammamet, est un ophtalmologiste suisse ayant fait sa carrière en Tunisie, où il s'est particulièrement illustré dans la lutte contre le trachome. Il est également l'auteur du premier tome de la flore de Tunisie, en collaboration avec Germaine Pottier-Alapetite et Augustin Labbe.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Auguste_Cu%C3%A9nod</t>
+          <t>Auguste_Cuénod</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Auguste Cuénod vient d'une famille protestante. Sa mère Mary décède en 1871 et son père en 1882.
 Il commence des études de médecine à Lausanne et les poursuit en ophtalmologie à la faculté de médecine de Paris où il obtient ses diplômes français de médecine et la médaille d'argent de cette faculté.
-Il s'installe en Tunisie en 1894[3]. En 1900, il ouvre une clinique ophtalmologique à Tunis, ouverte à tout le monde, quelle que soit la religion, Il soigne gratuitement les pauvres[2].
+Il s'installe en Tunisie en 1894. En 1900, il ouvre une clinique ophtalmologique à Tunis, ouverte à tout le monde, quelle que soit la religion, Il soigne gratuitement les pauvres.
 Il fut pendant trente ans vice-président du Conseil presbytéral de l'Église réformée de Tunis.
-À l'Institut Pasteur de Tunis, il mène des études sur le trachome, la conjonctivite[4].
+À l'Institut Pasteur de Tunis, il mène des études sur le trachome, la conjonctivite.
 Il prend sa retraite en 1940 à Hammamet. Un forage lui permet d'aménager autour de sa villa un jardin de plaisance et d'essais, renouant avec sa première passion pour la botanique. Il y entretient une collection remarquable de fleurs et de plantes. Il entame la rédaction de plusieurs volumes sur la flore de Tunisie. Il continue à soigner les malades des yeux et poursuit surtout sa lutte contre le trachome.
 En 1943, il cache des Juifs dans sa villa.
 Il décède le 8 février 1954 et, selon sa volonté, il est inhumé à Hammamet.
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Auguste_Cu%C3%A9nod</t>
+          <t>Auguste_Cuénod</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,10 +564,12 @@
           <t>Contribution botanique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>En collaboration avec Germaine Pottier-Alapetite et A. Labbé, Auguste Cuénod est l'auteur du premier tome de la flore de Tunisie consacré aux cryptogames vasculaires, aux Gymnospermes et aux Monocotylédones.
-Il a écrit les articles suivants[5] :
+Il a écrit les articles suivants :
 La Botanique en Tunisie. Conférence faite à la séance d'ouverture de la Session extraordinaire de la Société Botanique de France à Tunis le 5 avril 1909. Bull. Soc. Bot. France, 56, p. X-XXI, 1909.
 Note relative à la constitution d'un herbier. Bull. Soc. Hort. Tun., no 54. p. 188491, 1912.
 Notes sur la flore tunisienne. Discours d'ouverture de la Session de Botanique. Assoc. Franc. Avanc. Sci. p. 282-293, 1913.
@@ -590,7 +606,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Auguste_Cu%C3%A9nod</t>
+          <t>Auguste_Cuénod</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -610,8 +626,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Publications
-Auguste Cuénod, Germaine Pottier-Alapetite (collaboration) et Augustin Labbe (collaboration), Flore analytique et synoptique de la Tunisie : Cryptogames vasculaires, Gymnospermes et Monocotylédones, Tunis, Office de l'expérimentation et de la vulgarisation agricoles (Imprimerie S.E.F.A.N.), 1954, [1]-39, [1]-287 (lire en ligne)
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Auguste Cuénod, Germaine Pottier-Alapetite (collaboration) et Augustin Labbe (collaboration), Flore analytique et synoptique de la Tunisie : Cryptogames vasculaires, Gymnospermes et Monocotylédones, Tunis, Office de l'expérimentation et de la vulgarisation agricoles (Imprimerie S.E.F.A.N.), 1954, -39, -287 (lire en ligne)
 Étude expérimentale du trachome : conjonctivite graveleuse par Charles Nicolle, Auguste Cuenod, Ludovic Blaizot, Paris, Doin, 1911.
 L'articulation du coude [Texte imprimé] : Étude d'anatomie comparée 46 p. : 3 p. de pl. h.t. ; 23 cm Aus der internationalen Monatsschrift f. Anat. u. Phys. 1888, Heft 10
 Reproduction expérimentale de la conjonctivite granuleuse chez le singe Macacus sinicus par Charles Nicolle et Auguste Cuénod. Extrait de :"Comptes rendus des séances de l'Académie des sciences", 1907, 1 vol. (3 p.) ; 27 cm
